--- a/config_ aomi_debug/game_module_config.xlsx
+++ b/config_ aomi_debug/game_module_config.xlsx
@@ -4808,10 +4808,10 @@
   <dimension ref="A1:I359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C354" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C327" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C364" sqref="C364"/>
+      <selection pane="bottomRight" activeCell="E342" sqref="E342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13506,7 +13506,7 @@
         <v>994</v>
       </c>
       <c r="E342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F342">
         <v>1</v>
